--- a/data/3.xlsx
+++ b/data/3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\itss-web-exercise\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CA78B0-BF6D-4489-A11A-240F07418A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3E9294-6787-4A4A-8056-19B24DACC459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5064" yWindow="2712" windowWidth="17280" windowHeight="7944" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="7944" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -372,7 +372,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -397,7 +397,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45642</v>
+        <v>45657</v>
       </c>
       <c r="B2" s="2">
         <v>0.375</v>
@@ -411,7 +411,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45642</v>
+        <v>45657</v>
       </c>
       <c r="B3" s="2">
         <v>0.5</v>
@@ -425,7 +425,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>45642</v>
+        <v>45657</v>
       </c>
       <c r="B4" s="2">
         <v>0.79166666666666663</v>
@@ -439,7 +439,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>45643</v>
+        <v>45664</v>
       </c>
       <c r="B5" s="2">
         <v>0.375</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>45644</v>
+        <v>45665</v>
       </c>
       <c r="B6" s="2">
         <v>0.375</v>
@@ -467,7 +467,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>45645</v>
+        <v>45666</v>
       </c>
       <c r="B7" s="2">
         <v>0.375</v>
